--- a/sbmlutils/dfba/toy_wholecell/annotations.xlsx
+++ b/sbmlutils/dfba/toy_wholecell/annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
   <si>
     <t xml:space="preserve">pattern</t>
   </si>
@@ -34,10 +34,7 @@
     <t xml:space="preserve">qualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity</t>
+    <t xml:space="preserve">resource</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -55,16 +52,13 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">RDF</t>
+    <t xml:space="preserve">rdf</t>
   </si>
   <si>
     <t xml:space="preserve">BQB_IS</t>
   </si>
   <si>
-    <t xml:space="preserve">uo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UO:0000010</t>
+    <t xml:space="preserve">uo/UO:0000010</t>
   </si>
   <si>
     <t xml:space="preserve">second</t>
@@ -73,7 +67,7 @@
     <t xml:space="preserve">^kg$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000009</t>
+    <t xml:space="preserve">uo/UO:0000009</t>
   </si>
   <si>
     <t xml:space="preserve">kilogram</t>
@@ -82,7 +76,7 @@
     <t xml:space="preserve">^m$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000008</t>
+    <t xml:space="preserve">uo/UO:0000008</t>
   </si>
   <si>
     <t xml:space="preserve">meter</t>
@@ -91,7 +85,7 @@
     <t xml:space="preserve">^m2$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000080</t>
+    <t xml:space="preserve">uo/UO:0000080</t>
   </si>
   <si>
     <t xml:space="preserve">square meter</t>
@@ -100,7 +94,7 @@
     <t xml:space="preserve">^m3$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000096</t>
+    <t xml:space="preserve">uo/UO:0000096</t>
   </si>
   <si>
     <t xml:space="preserve">cubic meter</t>
@@ -109,7 +103,7 @@
     <t xml:space="preserve">^mM$</t>
   </si>
   <si>
-    <t xml:space="preserve">UO:0000063</t>
+    <t xml:space="preserve">uo/UO:0000063</t>
   </si>
   <si>
     <t xml:space="preserve">millimolar</t>
@@ -124,25 +118,16 @@
     <t xml:space="preserve">compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">sbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBO:0000290</t>
+    <t xml:space="preserve">sbo/SBO:0000290</t>
   </si>
   <si>
     <t xml:space="preserve">physical compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">go</t>
+    <t xml:space="preserve">go/GO:0005623</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMA:68646</t>
+    <t xml:space="preserve">fma/FMA:68646</t>
   </si>
   <si>
     <t xml:space="preserve">extern</t>
@@ -151,10 +136,10 @@
     <t xml:space="preserve">membrane</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0016020</t>
+    <t xml:space="preserve">go/GO:0016020</t>
   </si>
   <si>
-    <t xml:space="preserve">FMA:30322</t>
+    <t xml:space="preserve">fma/FMA:30322</t>
   </si>
   <si>
     <t xml:space="preserve"># species</t>
@@ -166,7 +151,7 @@
     <t xml:space="preserve">species</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000247</t>
+    <t xml:space="preserve">sbo/SBO:0000247</t>
   </si>
   <si>
     <t xml:space="preserve">simple chemical</t>
@@ -193,7 +178,7 @@
     <t xml:space="preserve">reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000176</t>
+    <t xml:space="preserve">sbo/SBO:0000176</t>
   </si>
   <si>
     <t xml:space="preserve">biochemical reaction</t>
@@ -202,13 +187,13 @@
     <t xml:space="preserve">^R1$</t>
   </si>
   <si>
-    <t xml:space="preserve">SBO:0000185</t>
+    <t xml:space="preserve">sbo/SBO:0000185</t>
   </si>
   <si>
     <t xml:space="preserve">transport reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0006810</t>
+    <t xml:space="preserve">go/GO:0006810</t>
   </si>
   <si>
     <t xml:space="preserve">transport</t>
@@ -444,23 +429,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:52"/>
+  <dimension ref="A1:AMI52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.02551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.7602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.02551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="40.0561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="58.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="1" width="14.0408163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,15 +460,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -1500,18 +1482,17 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -2527,16 +2508,15 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3552,16 +3532,15 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -4577,7 +4556,6 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -4586,7 +4564,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
@@ -5602,16 +5580,15 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -6627,18 +6604,17 @@
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
@@ -7654,30 +7630,27 @@
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
@@ -8693,30 +8666,27 @@
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
@@ -9732,30 +9702,27 @@
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
@@ -10771,30 +10738,27 @@
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11810,30 +11774,27 @@
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12849,30 +12810,27 @@
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13888,16 +13846,15 @@
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -14913,18 +14870,17 @@
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -15940,30 +15896,27 @@
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
@@ -16979,30 +16932,27 @@
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>37</v>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
@@ -18018,30 +17968,27 @@
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>39</v>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -19057,16 +19004,15 @@
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -20082,30 +20028,27 @@
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
-      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -21121,16 +21064,15 @@
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -22146,30 +22088,27 @@
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -23185,30 +23124,27 @@
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>12</v>
+      <c r="E23" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -24224,30 +24160,27 @@
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -25263,7 +25196,6 @@
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
-      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -25272,7 +25204,7 @@
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -26288,18 +26220,17 @@
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -27315,30 +27246,27 @@
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
+      <c r="E27" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>34</v>
+      <c r="F27" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -28354,7 +28282,6 @@
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
@@ -28363,7 +28290,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -29379,30 +29306,27 @@
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>12</v>
+      <c r="E29" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>34</v>
+      <c r="F29" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -30418,7 +30342,6 @@
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
@@ -30427,7 +30350,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -31443,30 +31366,27 @@
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>12</v>
+      <c r="E31" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>34</v>
+      <c r="F31" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -32482,7 +32402,6 @@
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -32491,7 +32410,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -33507,30 +33426,27 @@
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>12</v>
+      <c r="E33" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>34</v>
+      <c r="F33" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34546,16 +34462,15 @@
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35571,30 +35486,27 @@
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>12</v>
+      <c r="E35" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>34</v>
+      <c r="F35" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36610,16 +36522,15 @@
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="H36" s="0"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37635,18 +37546,17 @@
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
-      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="H37" s="0"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38662,30 +38572,27 @@
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>12</v>
+      <c r="E38" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>34</v>
+      <c r="F38" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H38" s="0"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39701,7 +39608,6 @@
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
-      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
@@ -39710,7 +39616,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="H39" s="0"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40726,30 +40632,27 @@
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
-      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="H40" s="0"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -41765,30 +41668,27 @@
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
-      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>37</v>
+      <c r="E41" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="H41" s="0"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -42804,7 +42704,6 @@
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
-      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
@@ -42813,7 +42712,7 @@
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -43829,30 +43728,27 @@
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
-      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="H43" s="0"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -44868,30 +44764,27 @@
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
-      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>37</v>
+      <c r="E44" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="H44" s="0"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -45907,7 +45800,6 @@
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
-      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
@@ -45916,7 +45808,7 @@
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -46932,30 +46824,27 @@
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
-      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>12</v>
+      <c r="E46" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>34</v>
+      <c r="F46" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H46" s="0"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -47971,16 +47860,15 @@
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
-      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="H47" s="0"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -48996,18 +48884,17 @@
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
       <c r="AMI47" s="0"/>
-      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="H48" s="0"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -50023,7 +49910,6 @@
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
-      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
@@ -50032,7 +49918,7 @@
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
       <c r="I49" s="0"/>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
@@ -51048,7 +50934,6 @@
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
-      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
@@ -51057,7 +50942,7 @@
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
@@ -52073,7 +51958,6 @@
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
-      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
@@ -52082,7 +51966,7 @@
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
@@ -53098,18 +52982,17 @@
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
-      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="H52" s="0"/>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
@@ -54125,7 +54008,6 @@
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
-      <c r="AMJ52" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
